--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_16ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_16ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1527,28 +1527,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>44.62961295739221</v>
+        <v>68.93547333017661</v>
       </c>
       <c r="AB2" t="n">
-        <v>61.06420536784892</v>
+        <v>94.32055582875643</v>
       </c>
       <c r="AC2" t="n">
-        <v>55.2363233117045</v>
+        <v>85.31873436021459</v>
       </c>
       <c r="AD2" t="n">
-        <v>44629.61295739221</v>
+        <v>68935.47333017661</v>
       </c>
       <c r="AE2" t="n">
-        <v>61064.20536784892</v>
+        <v>94320.55582875642</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.085297727754017e-06</v>
+        <v>9.409132200667298e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.98828125</v>
       </c>
       <c r="AH2" t="n">
-        <v>55236.32331170449</v>
+        <v>85318.73436021458</v>
       </c>
     </row>
     <row r="3">
@@ -1633,28 +1633,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>43.37712947375678</v>
+        <v>67.68298984654116</v>
       </c>
       <c r="AB3" t="n">
-        <v>59.35050220986824</v>
+        <v>92.60685267077574</v>
       </c>
       <c r="AC3" t="n">
-        <v>53.68617357792345</v>
+        <v>83.76858462643354</v>
       </c>
       <c r="AD3" t="n">
-        <v>43377.12947375678</v>
+        <v>67682.98984654117</v>
       </c>
       <c r="AE3" t="n">
-        <v>59350.50220986824</v>
+        <v>92606.85267077574</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.428254510687898e-06</v>
+        <v>1.004369204012937e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.799479166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>53686.17357792345</v>
+        <v>83768.58462643354</v>
       </c>
     </row>
   </sheetData>
@@ -1930,28 +1930,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>41.47289344648067</v>
+        <v>64.91497685734657</v>
       </c>
       <c r="AB2" t="n">
-        <v>56.74504246822537</v>
+        <v>88.81953518284703</v>
       </c>
       <c r="AC2" t="n">
-        <v>51.32937525733706</v>
+        <v>80.34272340401807</v>
       </c>
       <c r="AD2" t="n">
-        <v>41472.89344648067</v>
+        <v>64914.97685734657</v>
       </c>
       <c r="AE2" t="n">
-        <v>56745.04246822537</v>
+        <v>88819.53518284703</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.841102050445922e-06</v>
+        <v>1.113404197944e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.688802083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>51329.37525733706</v>
+        <v>80342.72340401808</v>
       </c>
     </row>
     <row r="3">
@@ -2036,28 +2036,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>41.53429795008405</v>
+        <v>64.97638136094996</v>
       </c>
       <c r="AB3" t="n">
-        <v>56.82905881903061</v>
+        <v>88.90355153365265</v>
       </c>
       <c r="AC3" t="n">
-        <v>51.40537320553939</v>
+        <v>80.41872135222053</v>
       </c>
       <c r="AD3" t="n">
-        <v>41534.29795008404</v>
+        <v>64976.38136094996</v>
       </c>
       <c r="AE3" t="n">
-        <v>56829.05881903062</v>
+        <v>88903.55153365264</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.810267016079175e-06</v>
+        <v>1.107526564509216e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.708333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>51405.37320553939</v>
+        <v>80418.72135222053</v>
       </c>
     </row>
   </sheetData>
@@ -2333,28 +2333,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>36.56673303247345</v>
+        <v>47.1155163782384</v>
       </c>
       <c r="AB2" t="n">
-        <v>50.03221734529159</v>
+        <v>64.46552809856776</v>
       </c>
       <c r="AC2" t="n">
-        <v>45.25721274260687</v>
+        <v>58.31302857479104</v>
       </c>
       <c r="AD2" t="n">
-        <v>36566.73303247345</v>
+        <v>47115.5163782384</v>
       </c>
       <c r="AE2" t="n">
-        <v>50032.21734529159</v>
+        <v>64465.52809856776</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.759937179894112e-06</v>
+        <v>1.439689709777901e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.59765625</v>
       </c>
       <c r="AH2" t="n">
-        <v>45257.21274260688</v>
+        <v>58313.02857479104</v>
       </c>
     </row>
   </sheetData>
@@ -2630,28 +2630,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>38.3755247169976</v>
+        <v>49.4326616177723</v>
       </c>
       <c r="AB2" t="n">
-        <v>52.50708592630279</v>
+        <v>67.63594844052972</v>
       </c>
       <c r="AC2" t="n">
-        <v>47.49588333975361</v>
+        <v>61.18086844903005</v>
       </c>
       <c r="AD2" t="n">
-        <v>38375.5247169976</v>
+        <v>49432.6616177723</v>
       </c>
       <c r="AE2" t="n">
-        <v>52507.0859263028</v>
+        <v>67635.94844052971</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.479209632402479e-06</v>
+        <v>1.315503562169334e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.591145833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>47495.88333975361</v>
+        <v>61180.86844903005</v>
       </c>
     </row>
   </sheetData>
@@ -2927,28 +2927,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>35.27966432080662</v>
+        <v>55.2873000602241</v>
       </c>
       <c r="AB2" t="n">
-        <v>48.27119315253345</v>
+        <v>75.64652304590726</v>
       </c>
       <c r="AC2" t="n">
-        <v>43.66425822718735</v>
+        <v>68.426925056985</v>
       </c>
       <c r="AD2" t="n">
-        <v>35279.66432080662</v>
+        <v>55287.30006022411</v>
       </c>
       <c r="AE2" t="n">
-        <v>48271.19315253345</v>
+        <v>75646.52304590726</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.773389023569837e-06</v>
+        <v>1.508301434977399e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.688802083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>43664.25822718735</v>
+        <v>68426.925056985</v>
       </c>
     </row>
   </sheetData>
@@ -3224,28 +3224,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>42.19969703969107</v>
+        <v>65.86881684030281</v>
       </c>
       <c r="AB2" t="n">
-        <v>57.73948720892741</v>
+        <v>90.12462112797726</v>
       </c>
       <c r="AC2" t="n">
-        <v>52.22891158759814</v>
+        <v>81.52325377824511</v>
       </c>
       <c r="AD2" t="n">
-        <v>42199.69703969107</v>
+        <v>65868.81684030281</v>
       </c>
       <c r="AE2" t="n">
-        <v>57739.48720892741</v>
+        <v>90124.62112797727</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.636750945697229e-06</v>
+        <v>1.065776389719969e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.766927083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>52228.91158759814</v>
+        <v>81523.25377824511</v>
       </c>
     </row>
     <row r="3">
@@ -3330,28 +3330,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>41.77433593819394</v>
+        <v>65.44345573880911</v>
       </c>
       <c r="AB3" t="n">
-        <v>57.15748938408964</v>
+        <v>89.5426233033065</v>
       </c>
       <c r="AC3" t="n">
-        <v>51.70245881842536</v>
+        <v>80.99680100912164</v>
       </c>
       <c r="AD3" t="n">
-        <v>41774.33593819394</v>
+        <v>65443.45573880911</v>
       </c>
       <c r="AE3" t="n">
-        <v>57157.48938408964</v>
+        <v>89542.62330330649</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.799926601162213e-06</v>
+        <v>1.09662904981566e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.688802083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>51702.45881842536</v>
+        <v>80996.80100912164</v>
       </c>
     </row>
   </sheetData>
@@ -3627,28 +3627,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>34.53616083490526</v>
+        <v>54.0499979499332</v>
       </c>
       <c r="AB2" t="n">
-        <v>47.25389888206931</v>
+        <v>73.95359171269146</v>
       </c>
       <c r="AC2" t="n">
-        <v>42.74405309411181</v>
+        <v>66.89556471416671</v>
       </c>
       <c r="AD2" t="n">
-        <v>34536.16083490526</v>
+        <v>54049.9979499332</v>
       </c>
       <c r="AE2" t="n">
-        <v>47253.89888206931</v>
+        <v>73953.59171269146</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.714630917625198e-06</v>
+        <v>1.539373956807793e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.7734375</v>
       </c>
       <c r="AH2" t="n">
-        <v>42744.0530941118</v>
+        <v>66895.56471416671</v>
       </c>
     </row>
   </sheetData>
@@ -3924,28 +3924,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>40.04715405086025</v>
+        <v>62.75239452960546</v>
       </c>
       <c r="AB2" t="n">
-        <v>54.79428292796401</v>
+        <v>85.86059463563426</v>
       </c>
       <c r="AC2" t="n">
-        <v>49.56479346968425</v>
+        <v>77.66617998973121</v>
       </c>
       <c r="AD2" t="n">
-        <v>40047.15405086025</v>
+        <v>62752.39452960546</v>
       </c>
       <c r="AE2" t="n">
-        <v>54794.28292796401</v>
+        <v>85860.59463563426</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.124325863019965e-06</v>
+        <v>1.20035940537388e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.643229166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>49564.79346968425</v>
+        <v>77666.1799897312</v>
       </c>
     </row>
   </sheetData>
@@ -4221,28 +4221,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>40.89949537344757</v>
+        <v>64.10590905088807</v>
       </c>
       <c r="AB2" t="n">
-        <v>55.96049392816764</v>
+        <v>87.71253291649857</v>
       </c>
       <c r="AC2" t="n">
-        <v>50.61970292881931</v>
+        <v>79.34137188028213</v>
       </c>
       <c r="AD2" t="n">
-        <v>40899.49537344757</v>
+        <v>64105.90905088808</v>
       </c>
       <c r="AE2" t="n">
-        <v>55960.49392816763</v>
+        <v>87712.53291649857</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.976901530987503e-06</v>
+        <v>1.149180698988492e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.65625</v>
       </c>
       <c r="AH2" t="n">
-        <v>50619.70292881932</v>
+        <v>79341.37188028212</v>
       </c>
     </row>
   </sheetData>
@@ -4518,28 +4518,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>43.74608746595021</v>
+        <v>67.84645749011734</v>
       </c>
       <c r="AB2" t="n">
-        <v>59.85532681206486</v>
+        <v>92.83051631240001</v>
       </c>
       <c r="AC2" t="n">
-        <v>54.14281842861236</v>
+        <v>83.97090212401515</v>
       </c>
       <c r="AD2" t="n">
-        <v>43746.08746595021</v>
+        <v>67846.45749011735</v>
       </c>
       <c r="AE2" t="n">
-        <v>59855.32681206486</v>
+        <v>92830.51631240001</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.282929271785411e-06</v>
+        <v>9.841696542041465e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.897135416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>54142.81842861236</v>
+        <v>83970.90212401515</v>
       </c>
     </row>
     <row r="3">
@@ -4624,28 +4624,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>42.7977669355818</v>
+        <v>66.89813695974894</v>
       </c>
       <c r="AB3" t="n">
-        <v>58.55779282546635</v>
+        <v>91.53298232580151</v>
       </c>
       <c r="AC3" t="n">
-        <v>52.96911926459402</v>
+        <v>82.79720295999681</v>
       </c>
       <c r="AD3" t="n">
-        <v>42797.7669355818</v>
+        <v>66898.13695974894</v>
       </c>
       <c r="AE3" t="n">
-        <v>58557.79282546635</v>
+        <v>91532.98232580151</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.576489391160243e-06</v>
+        <v>1.038857677895142e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.747395833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>52969.11926459402</v>
+        <v>82797.20295999681</v>
       </c>
     </row>
   </sheetData>
@@ -4921,28 +4921,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>38.91274132611805</v>
+        <v>50.11856566980154</v>
       </c>
       <c r="AB2" t="n">
-        <v>53.24212939122197</v>
+        <v>68.57443262446679</v>
       </c>
       <c r="AC2" t="n">
-        <v>48.16077528802307</v>
+        <v>62.02978501962329</v>
       </c>
       <c r="AD2" t="n">
-        <v>38912.74132611806</v>
+        <v>50118.56566980154</v>
       </c>
       <c r="AE2" t="n">
-        <v>53242.12939122196</v>
+        <v>68574.43262446679</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.37406587082818e-06</v>
+        <v>1.277679817844368e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.59765625</v>
       </c>
       <c r="AH2" t="n">
-        <v>48160.77528802307</v>
+        <v>62029.78501962329</v>
       </c>
     </row>
   </sheetData>
@@ -5218,28 +5218,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>37.25415363722668</v>
+        <v>47.98474349867291</v>
       </c>
       <c r="AB2" t="n">
-        <v>50.97277654356713</v>
+        <v>65.65484299233978</v>
       </c>
       <c r="AC2" t="n">
-        <v>46.10800629108493</v>
+        <v>59.38883692431577</v>
       </c>
       <c r="AD2" t="n">
-        <v>37254.15363722668</v>
+        <v>47984.74349867291</v>
       </c>
       <c r="AE2" t="n">
-        <v>50972.77654356713</v>
+        <v>65654.84299233978</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.640140975215409e-06</v>
+        <v>1.389159018073539e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.59765625</v>
       </c>
       <c r="AH2" t="n">
-        <v>46108.00629108493</v>
+        <v>59388.83692431576</v>
       </c>
     </row>
   </sheetData>
@@ -8240,28 +8240,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>35.95833923764483</v>
+        <v>46.30906529511282</v>
       </c>
       <c r="AB2" t="n">
-        <v>49.19978611477119</v>
+        <v>63.36210614852508</v>
       </c>
       <c r="AC2" t="n">
-        <v>44.5042275804003</v>
+        <v>57.31491566699764</v>
       </c>
       <c r="AD2" t="n">
-        <v>35958.33923764483</v>
+        <v>46309.06529511282</v>
       </c>
       <c r="AE2" t="n">
-        <v>49199.7861147712</v>
+        <v>63362.10614852508</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.776049062095397e-06</v>
+        <v>1.4730153350469e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.63671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>44504.22758040031</v>
+        <v>57314.91566699764</v>
       </c>
     </row>
   </sheetData>
@@ -8537,28 +8537,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>33.79812806398534</v>
+        <v>52.73754189149677</v>
       </c>
       <c r="AB2" t="n">
-        <v>46.24408988519364</v>
+        <v>72.15783143206482</v>
       </c>
       <c r="AC2" t="n">
-        <v>41.83061885061912</v>
+        <v>65.27118927435713</v>
       </c>
       <c r="AD2" t="n">
-        <v>33798.12806398534</v>
+        <v>52737.54189149677</v>
       </c>
       <c r="AE2" t="n">
-        <v>46244.08988519364</v>
+        <v>72157.83143206482</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.443277283502006e-06</v>
+        <v>1.532550875226518e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.975260416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>41830.61885061912</v>
+        <v>65271.18927435712</v>
       </c>
     </row>
   </sheetData>
@@ -8834,28 +8834,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>40.48038261735535</v>
+        <v>63.44155436509378</v>
       </c>
       <c r="AB2" t="n">
-        <v>55.3870453653352</v>
+        <v>86.80353352613507</v>
       </c>
       <c r="AC2" t="n">
-        <v>50.10098349198178</v>
+        <v>78.51912611594595</v>
       </c>
       <c r="AD2" t="n">
-        <v>40480.38261735535</v>
+        <v>63441.55436509378</v>
       </c>
       <c r="AE2" t="n">
-        <v>55387.04536533519</v>
+        <v>86803.53352613507</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.050182594649125e-06</v>
+        <v>1.174085241887425e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.649739583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>50100.98349198178</v>
+        <v>78519.12611594595</v>
       </c>
     </row>
   </sheetData>
@@ -9131,28 +9131,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>43.09387673548823</v>
+        <v>66.98219728916523</v>
       </c>
       <c r="AB2" t="n">
-        <v>58.96294331714052</v>
+        <v>91.64799737698881</v>
       </c>
       <c r="AC2" t="n">
-        <v>53.33560276197522</v>
+        <v>82.90124113612347</v>
       </c>
       <c r="AD2" t="n">
-        <v>43093.87673548823</v>
+        <v>66982.19728916523</v>
       </c>
       <c r="AE2" t="n">
-        <v>58962.94331714052</v>
+        <v>91647.99737698882</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.409881293205809e-06</v>
+        <v>1.015105921970542e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.858072916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>53335.60276197522</v>
+        <v>82901.24113612347</v>
       </c>
     </row>
     <row r="3">
@@ -9237,28 +9237,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>42.51436945303229</v>
+        <v>66.40269000670929</v>
       </c>
       <c r="AB3" t="n">
-        <v>58.17003588722777</v>
+        <v>90.85508994707607</v>
       </c>
       <c r="AC3" t="n">
-        <v>52.61836930432053</v>
+        <v>82.18400767846879</v>
       </c>
       <c r="AD3" t="n">
-        <v>42514.3694530323</v>
+        <v>66402.69000670929</v>
       </c>
       <c r="AE3" t="n">
-        <v>58170.03588722777</v>
+        <v>90855.08994707606</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.601118874572489e-06</v>
+        <v>1.050989593132133e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.760416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>52618.36930432053</v>
+        <v>82184.00767846878</v>
       </c>
     </row>
   </sheetData>
@@ -9534,28 +9534,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>42.3478010597854</v>
+        <v>60.49759478565974</v>
       </c>
       <c r="AB2" t="n">
-        <v>57.94212966310861</v>
+        <v>82.77547815122517</v>
       </c>
       <c r="AC2" t="n">
-        <v>52.41221413036282</v>
+        <v>74.87550269260495</v>
       </c>
       <c r="AD2" t="n">
-        <v>42347.8010597854</v>
+        <v>60497.59478565974</v>
       </c>
       <c r="AE2" t="n">
-        <v>57942.12966310861</v>
+        <v>82775.47815122518</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.747426891836943e-06</v>
+        <v>1.437387848694909e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.450520833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>52412.21413036282</v>
+        <v>74875.50269260495</v>
       </c>
     </row>
   </sheetData>
@@ -9831,28 +9831,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>37.87583013089198</v>
+        <v>48.77511795980919</v>
       </c>
       <c r="AB2" t="n">
-        <v>51.82338174862713</v>
+        <v>66.73626819892618</v>
       </c>
       <c r="AC2" t="n">
-        <v>46.87743092920844</v>
+        <v>60.36705242697573</v>
       </c>
       <c r="AD2" t="n">
-        <v>37875.83013089198</v>
+        <v>48775.11795980918</v>
       </c>
       <c r="AE2" t="n">
-        <v>51823.38174862713</v>
+        <v>66736.26819892618</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.535177397445919e-06</v>
+        <v>1.345778271043465e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.604166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>46877.43092920844</v>
+        <v>60367.05242697572</v>
       </c>
     </row>
   </sheetData>
@@ -10128,28 +10128,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>39.46126913780576</v>
+        <v>50.80791732115384</v>
       </c>
       <c r="AB2" t="n">
-        <v>53.99264934250861</v>
+        <v>69.51763396589502</v>
       </c>
       <c r="AC2" t="n">
-        <v>48.8396666685225</v>
+        <v>62.8829685488173</v>
       </c>
       <c r="AD2" t="n">
-        <v>39461.26913780576</v>
+        <v>50807.91732115384</v>
       </c>
       <c r="AE2" t="n">
-        <v>53992.64934250861</v>
+        <v>69517.63396589502</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.254166151948352e-06</v>
+        <v>1.239065461269002e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.6171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>48839.66666852251</v>
+        <v>62882.96854881731</v>
       </c>
     </row>
   </sheetData>
